--- a/testdata/internal/etc/test_okay.xlsx
+++ b/testdata/internal/etc/test_okay.xlsx
@@ -1,35 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmichaels/repos/cgap/submitr/testdata/demo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmichaels/repos/cgap/submitr-patch-0.7.0.1b58/testdata/internal/etc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFD5A29-76C5-0B4A-966D-D23803F72DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B935E822-430C-A147-99C6-51E0A6B4D55C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="FileFormat" sheetId="1" r:id="rId1"/>
-    <sheet name="ReferenceFile" sheetId="2" r:id="rId2"/>
-    <sheet name="Software" sheetId="3" r:id="rId3"/>
-    <sheet name="Workflow" sheetId="4" r:id="rId4"/>
+    <sheet name="ReferenceFile" sheetId="2" r:id="rId1"/>
+    <sheet name="Software" sheetId="3" r:id="rId2"/>
+    <sheet name="Workflow" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
-  <si>
-    <t>identifier</t>
-  </si>
-  <si>
-    <t>standard_file_extension</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
   <si>
     <t>consortia</t>
   </si>
@@ -55,9 +48,6 @@
     <t>filename</t>
   </si>
   <si>
-    <t>smaht:reference_file-fastq1</t>
-  </si>
-  <si>
     <t>Sequencing Reads</t>
   </si>
   <si>
@@ -67,9 +57,6 @@
     <t>first_file.fastq</t>
   </si>
   <si>
-    <t>smaht:reference_file-fastq2|smaht:reference_file-fastq_alt</t>
-  </si>
-  <si>
     <t>second_file.fastq</t>
   </si>
   <si>
@@ -175,17 +162,17 @@
     <t>DAC_SOFTWARE_FASTQC</t>
   </si>
   <si>
-    <t>valid_item_types</t>
-  </si>
-  <si>
-    <t>ReferenceFile|UnalignedReads|AlignedReads</t>
+    <t>smaht:reference_file-fastq1-abc1</t>
+  </si>
+  <si>
+    <t>smaht:reference_file-fastq2-def2|smaht:reference_file-fastq_alt-def2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -205,13 +192,6 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -234,14 +214,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,64 +435,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
-    <col min="4" max="4" width="51.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -527,62 +456,62 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +519,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -610,68 +539,68 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -682,7 +611,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -707,95 +636,95 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
